--- a/biology/Zoologie/Condica/Condica.xlsx
+++ b/biology/Zoologie/Condica/Condica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Condica est un genre de lépidoptère de la famille des Noctuidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Condica abstemia (Guenée, 1852)
 Condica agnata (Felder, 1874)
@@ -530,9 +544,9 @@
 Condica cinifacta (Draudt, 1950)
 Condica circuita (Guenée) 
 Condica concisa Walker, 1856
-Condica conducta (Walker, [1857])
+Condica conducta (Walker, )
 Condica confederata (Grote, 1873)
-Condica cupentia (Cramer, [1779])
+Condica cupentia (Cramer, )
 Condica cyclica Hampson, 1908
 Condica cyclioides (Draudt, 1950)
 Condica discistriga Smith, 1894
@@ -550,7 +564,7 @@
 Condica lineata (Druce, 1889)
 Condica lunata (Barnes &amp; McDunnough, 1916)
 Condica mersa Morrison, 1875
-Condica mobilis (Walker, [1857])
+Condica mobilis (Walker, )
 Condica morsa (Smith, 1907)
 Condica orta Barnes &amp; McDunnough, 1912
 Condica palaestinensis Staudinger, 1894
@@ -561,7 +575,7 @@
 Condica pauperata (Walker, 1858)
 Condica praesecta (Warren, 1912)
 Condica proxima Morrison, 1876
-Condica punctifera (Walker, [1857])
+Condica punctifera (Walker, )
 Condica pyromphalus (Dyar, 1913)
 Condica revellata (Barnes &amp; Benjamin, 1924)
 Condica roxana Druce, 1898
@@ -606,9 +620,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (7 févr. 2011)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (7 févr. 2011) :
 Condica albigera
 Condica concisa
 Condica cupentia
